--- a/lutra-tab/src/test/resources/atomic/typedStrings.xlsx
+++ b/lutra-tab/src/test/resources/atomic/typedStrings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="957" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">ex:NoTemplate</t>
   </si>
   <si>
+    <t xml:space="preserve">xsd:string</t>
+  </si>
+  <si>
     <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xsd:string</t>
   </si>
   <si>
     <t xml:space="preserve">hello</t>
@@ -59,10 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -143,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,10 +160,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -188,13 +183,10 @@
   <dimension ref="A2:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:A13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -236,19 +228,19 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
@@ -267,7 +259,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
